--- a/visuals_time_window_occurrences.xlsx
+++ b/visuals_time_window_occurrences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4231B8E-FA31-4E2C-A6E5-40CAE49171BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C3CBD-46B8-B845-AC39-989FF7945575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C05AA79-9C3B-4F72-852C-B2E803B31511}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{2C05AA79-9C3B-4F72-852C-B2E803B31511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,67 +105,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Window Occurrences</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -188,10 +128,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -289,7 +231,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -302,7 +244,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Time Window</a:t>
                 </a:r>
               </a:p>
@@ -321,7 +263,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -345,10 +287,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -388,20 +327,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -409,7 +334,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -422,14 +347,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Occurences</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Occurence</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
                   <a:t> across Optimal Feature Sets</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -446,7 +371,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -463,13 +388,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -514,12 +441,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1089,16 +1011,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>375920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,16 +1348,16 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1451,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1459,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1467,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1475,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1483,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1491,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
